--- a/HLS_man/COP21/COP21_man_afghanistan.xlsx
+++ b/HLS_man/COP21/COP21_man_afghanistan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2F604-45A8-4F19-AF36-C7D1C706FE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21ABE81-873E-4CC5-98C7-96473E2803C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6804" yWindow="0" windowWidth="14400" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>COP21_afghanistan</t>
   </si>
@@ -83,13 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-We may be the United Nations of Great Grief but our love, strength in diversity, tolerance and unity is 
-far more powerful than their bombs and guns can ever be! 
-Climate Change and Intern ational Terrorism are two extremely serious issues which threatens Humanity 
-and which must be dealt with all possible means at our collective disposal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Excellencies, Distinguishe d Guests, Ladies and Gentlemen, 
 I would like to avail myself of this opportunity to thank the Government of France and the organizers of 
 the UNFCCCC COP21 for the excellent facilities provided and the warm hospitality extended to my 
@@ -164,28 +157,36 @@
     <t>n.a.</t>
   </si>
   <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calling for a legally binding mechanism setting a general level that should be reached by all. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentions characteristics of new policy. Utilitarain because it the reasons for taking measures is for the benefit of humanity. </t>
-  </si>
-  <si>
     <t>utilitarian</t>
   </si>
   <si>
     <t>present, distant future</t>
   </si>
   <si>
-    <t xml:space="preserve">present </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, moral responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentions collective responsibility and the need to act, reason to act is utilitarian, our common Planet. </t>
+    <t xml:space="preserve">
+We may be the United Nations of Great Grief but our love, strength in diversity, tolerance and unity is 
+far more powerful than their bombs and guns can ever be! 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Climate Change and Intern ational Terrorism are two extremely serious issues which threatens Humanity 
+and which must be dealt with all possible means at our collective disposal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to take on action to counter threat to humanity, thus in benefit of all. </t>
+  </si>
+  <si>
+    <t>egalitarain, utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egalitarian in urging all countries, for the reason to save the planet, both utilitarain and egalitarain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to take on action for the benefit of all. </t>
+  </si>
+  <si>
+    <t>action</t>
   </si>
 </sst>
 </file>
@@ -555,18 +556,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,175 +596,183 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP21/COP21_man_afghanistan.xlsx
+++ b/HLS_man/COP21/COP21_man_afghanistan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21ABE81-873E-4CC5-98C7-96473E2803C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A2C441-D4D8-479E-9B36-7F7A196EBC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="15" windowWidth="14400" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>COP21_afghanistan</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -127,40 +121,13 @@
 COP21 successful.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Therefore, let us be bold and take that step for Humanity and for Life itself! 
-I thank you for your kind attention.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>new UNFCCC policy</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>utilitarian</t>
-  </si>
-  <si>
-    <t>present, distant future</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -177,16 +144,33 @@
     <t xml:space="preserve">Urge to take on action to counter threat to humanity, thus in benefit of all. </t>
   </si>
   <si>
-    <t>egalitarain, utilitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egalitarian in urging all countries, for the reason to save the planet, both utilitarain and egalitarain </t>
-  </si>
-  <si>
     <t xml:space="preserve">Urge to take on action for the benefit of all. </t>
   </si>
   <si>
-    <t>action</t>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivated by the need to save the planet, thus taking action in the benefit of all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Therefore, let us be bold and take that step for Humanity and for Life itself! 
+</t>
+  </si>
+  <si>
+    <t>I thank you for your kind attention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motivated to take action for the benefit of all. </t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to collaborate, motivated by a global goal, thus benefit of all. </t>
   </si>
 </sst>
 </file>
@@ -556,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +551,7 @@
     <col min="1" max="1" width="37" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,198 +565,219 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="8" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
